--- a/data/trans_media/P34F2_HOR_2023-Provincia-trans_media.xlsx
+++ b/data/trans_media/P34F2_HOR_2023-Provincia-trans_media.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,55</t>
+          <t>0,35; 0,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,47</t>
+          <t>0,35; 0,48</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,2</t>
+          <t>0,87; 1,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,2</t>
+          <t>0,99; 1,21</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 0,87</t>
+          <t>0,62; 0,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,61</t>
+          <t>0,45; 0,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,19</t>
+          <t>0,78; 1,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 0,99</t>
+          <t>0,79; 1,01</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,14</t>
+          <t>0,88; 1,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,84</t>
+          <t>0,65; 0,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 0,94</t>
+          <t>0,8; 0,95</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 0,9</t>
+          <t>0,66; 0,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,69</t>
+          <t>0,51; 0,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 0,77</t>
+          <t>0,6; 0,76</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,43</t>
+          <t>1,16; 1,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,1</t>
+          <t>0,99; 2,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,83</t>
+          <t>1,12; 1,79</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,59</t>
+          <t>0,41; 0,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,44</t>
+          <t>0,34; 0,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,5</t>
+          <t>0,4; 0,49</t>
         </is>
       </c>
     </row>
@@ -984,12 +984,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,12</t>
+          <t>0,7; 1,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,75; 0,99</t>
+          <t>0,76; 0,99</t>
         </is>
       </c>
     </row>
